--- a/project/excel/smoc_schema.xlsx
+++ b/project/excel/smoc_schema.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="NamedThing" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Study" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="MODO" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Assay" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Sample" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="DataEntity" sheetId="5" state="visible" r:id="rId5"/>
@@ -17,7 +17,7 @@
     <sheet name="AlignmentSet" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="VariantSet" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="Array" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="StudyCollection" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="MODOCollection" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,30 +557,35 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>start_date</t>
+          <t>creation_date</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>completion_date</t>
+          <t>has_assay</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>has_assay</t>
+          <t>last_update_date</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>source_uri</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
@@ -653,7 +658,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -664,31 +669,51 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>cell_type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>source_material</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>sex</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>taxon_id</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>collector</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="C2:C1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Male,Female"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -760,7 +785,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -791,15 +816,20 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
+          <t>version</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
@@ -816,7 +846,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -837,15 +867,20 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>version</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>description</t>
         </is>

--- a/project/excel/smoc_schema.xlsx
+++ b/project/excel/smoc_schema.xlsx
@@ -470,7 +470,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>location</t>
+          <t>data_path</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -735,7 +735,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>location</t>
+          <t>data_path</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>location</t>
+          <t>data_path</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -908,7 +908,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>location</t>
+          <t>data_path</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -969,7 +969,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>location</t>
+          <t>data_path</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
